--- a/db/import/contact_addresses.xlsx
+++ b/db/import/contact_addresses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="361">
   <si>
     <t>account</t>
   </si>
@@ -46,6 +46,1062 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>jobsite</t>
+  </si>
+  <si>
+    <t>4233 NW 18th St.</t>
+  </si>
+  <si>
+    <t>PO Box 30</t>
+  </si>
+  <si>
+    <t>155 Robinson drive</t>
+  </si>
+  <si>
+    <t>16050 W. Orange Ave.</t>
+  </si>
+  <si>
+    <t>330 Lee Industrail Blvd</t>
+  </si>
+  <si>
+    <t>4618 Scarborough Drive</t>
+  </si>
+  <si>
+    <t>450 Calaway Road</t>
+  </si>
+  <si>
+    <t>2255 Hwy 21 South</t>
+  </si>
+  <si>
+    <t>770 North Drive, Suite A</t>
+  </si>
+  <si>
+    <t>375 Lee Industrial Blvd</t>
+  </si>
+  <si>
+    <t>2401 Pinson Valley Parkway</t>
+  </si>
+  <si>
+    <t>530 Interchange Drive</t>
+  </si>
+  <si>
+    <t>6141 Siesta Lane</t>
+  </si>
+  <si>
+    <t>2781 Wrights Road</t>
+  </si>
+  <si>
+    <t>27730 Faygan Lane</t>
+  </si>
+  <si>
+    <t>4681 Bonanza Rd.</t>
+  </si>
+  <si>
+    <t>101 Sansbury Way</t>
+  </si>
+  <si>
+    <t>P.O.Box 1128</t>
+  </si>
+  <si>
+    <t>5411 Willis Road</t>
+  </si>
+  <si>
+    <t>4114 PARKWAY BLVD</t>
+  </si>
+  <si>
+    <t>1791 Og Skinner Drive</t>
+  </si>
+  <si>
+    <t>100 Morgan Industrial Blvd</t>
+  </si>
+  <si>
+    <t>995 Goldenrod Road</t>
+  </si>
+  <si>
+    <t>99 North Church St.</t>
+  </si>
+  <si>
+    <t>26216 CR 448A</t>
+  </si>
+  <si>
+    <t>405 Belmont Road</t>
+  </si>
+  <si>
+    <t>P.O. Box 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 300 </t>
+  </si>
+  <si>
+    <t>425 S. Riverside Avenue</t>
+  </si>
+  <si>
+    <t>1323 20th Ave East</t>
+  </si>
+  <si>
+    <t>1928 Executive Park Drive</t>
+  </si>
+  <si>
+    <t>500 World Commerce Pkwy</t>
+  </si>
+  <si>
+    <t>5200 HAZELTINE NATIONAL</t>
+  </si>
+  <si>
+    <t>P.O. Box 1452</t>
+  </si>
+  <si>
+    <t>5594 6th Street West</t>
+  </si>
+  <si>
+    <t>6900 Professional Parkway East</t>
+  </si>
+  <si>
+    <t>114 Blacksher Street</t>
+  </si>
+  <si>
+    <t>17502 CR 672</t>
+  </si>
+  <si>
+    <t>1821 New Buckeye Road</t>
+  </si>
+  <si>
+    <t>42 Industrial Road</t>
+  </si>
+  <si>
+    <t>475 South First Avenue</t>
+  </si>
+  <si>
+    <t>19313 US Hwy 41</t>
+  </si>
+  <si>
+    <t>BZE 11620</t>
+  </si>
+  <si>
+    <t>268 Andes Ave.</t>
+  </si>
+  <si>
+    <t>6679 Oak Ridge Commerce Way</t>
+  </si>
+  <si>
+    <t>1205 Elboc Way</t>
+  </si>
+  <si>
+    <t>1955 Monier Avenue</t>
+  </si>
+  <si>
+    <t>3808 East 26th Ave.</t>
+  </si>
+  <si>
+    <t>1932 Kingfish Rd</t>
+  </si>
+  <si>
+    <t>245 Clow Ln</t>
+  </si>
+  <si>
+    <t>210 South Hoagland Blvd.</t>
+  </si>
+  <si>
+    <t>P.O. Box 2692</t>
+  </si>
+  <si>
+    <t>2603 Maitland Center Parkway</t>
+  </si>
+  <si>
+    <t>1409 Tech Boulevard</t>
+  </si>
+  <si>
+    <t>11810 North West 115th Ave.</t>
+  </si>
+  <si>
+    <t>3540 Wetumpka Highway</t>
+  </si>
+  <si>
+    <t>1840-25TH STREET</t>
+  </si>
+  <si>
+    <t>4635 North Royal Atlanta Drive</t>
+  </si>
+  <si>
+    <t>3810 Northdale Blvd.</t>
+  </si>
+  <si>
+    <t>19 Nautical Point</t>
+  </si>
+  <si>
+    <t>2775 Gunter Park Drive W.</t>
+  </si>
+  <si>
+    <t>4 Laguna St., Suite 201</t>
+  </si>
+  <si>
+    <t>5796 WESTERN WAY</t>
+  </si>
+  <si>
+    <t>1050 W. King St</t>
+  </si>
+  <si>
+    <t>3839 County Road 48</t>
+  </si>
+  <si>
+    <t>Guilford Technical Community College</t>
+  </si>
+  <si>
+    <t>12905 Phillips HWY</t>
+  </si>
+  <si>
+    <t>2725 Judge Fran Jameison Way</t>
+  </si>
+  <si>
+    <t>20900 Taft St</t>
+  </si>
+  <si>
+    <t>2620 Hunt Road</t>
+  </si>
+  <si>
+    <t>3214 Frontage Road</t>
+  </si>
+  <si>
+    <t>1409 Coliseum Boulevard</t>
+  </si>
+  <si>
+    <t>9350 N.W. 89th Ave.</t>
+  </si>
+  <si>
+    <t>22 Annette Crescent</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>11001 Fern Hill Drive</t>
+  </si>
+  <si>
+    <t>14463 W Colonial Dr</t>
+  </si>
+  <si>
+    <t>215 5th St</t>
+  </si>
+  <si>
+    <t>1442 St Mark Church Rd</t>
+  </si>
+  <si>
+    <t>1913 US Hwy 41</t>
+  </si>
+  <si>
+    <t>770 North Dr.</t>
+  </si>
+  <si>
+    <t>10110%20Fern%20Hill%20Drive</t>
+  </si>
+  <si>
+    <t>P.O. Box 1301</t>
+  </si>
+  <si>
+    <t>54 Cardigan Street</t>
+  </si>
+  <si>
+    <t>3483 ALTERNATE 19</t>
+  </si>
+  <si>
+    <t>2 Guerdon Road</t>
+  </si>
+  <si>
+    <t>13291 Vantage Way Ste 103</t>
+  </si>
+  <si>
+    <t>401 South Bowens Mill Road</t>
+  </si>
+  <si>
+    <t>438 Interstate Court</t>
+  </si>
+  <si>
+    <t>5212 WILLIS RD</t>
+  </si>
+  <si>
+    <t>4183 23 Lane North</t>
+  </si>
+  <si>
+    <t>4477 EAST C.R. 462</t>
+  </si>
+  <si>
+    <t>10110 Fern Hill Drive</t>
+  </si>
+  <si>
+    <t>3008 Smith Road</t>
+  </si>
+  <si>
+    <t>1 Purlieu Place</t>
+  </si>
+  <si>
+    <t>18850 US 19 North #500</t>
+  </si>
+  <si>
+    <t>4317 Park Drive</t>
+  </si>
+  <si>
+    <t>2250 Lovvorn Road</t>
+  </si>
+  <si>
+    <t>15912 Armistead Lane</t>
+  </si>
+  <si>
+    <t>377 Agmac Avenue</t>
+  </si>
+  <si>
+    <t>9220 Marne Road</t>
+  </si>
+  <si>
+    <t>3461 Fairlane Farms Rd</t>
+  </si>
+  <si>
+    <t>8255 NW 58th St</t>
+  </si>
+  <si>
+    <t>PO BOX 977</t>
+  </si>
+  <si>
+    <t>14680 S.W. 8th St.</t>
+  </si>
+  <si>
+    <t>8255 Northwest 58th Street</t>
+  </si>
+  <si>
+    <t>9819 State Road 7</t>
+  </si>
+  <si>
+    <t>5796 Western Way</t>
+  </si>
+  <si>
+    <t>15212 State Road 52</t>
+  </si>
+  <si>
+    <t>627 E. Broussard Road</t>
+  </si>
+  <si>
+    <t>1000 Charles J. Herbert Dr.</t>
+  </si>
+  <si>
+    <t>5108 W. Kennedy Blvd.</t>
+  </si>
+  <si>
+    <t>5219 Cone Road</t>
+  </si>
+  <si>
+    <t>851 S.W. DARWIN BLVD.</t>
+  </si>
+  <si>
+    <t>9547 SR 7</t>
+  </si>
+  <si>
+    <t>1400 NW 13th Avenue</t>
+  </si>
+  <si>
+    <t>125 LASER INDUSTRIAL BLVD</t>
+  </si>
+  <si>
+    <t>Plant Vogel</t>
+  </si>
+  <si>
+    <t>2459 NORTH BELTLINE HIGHWAY</t>
+  </si>
+  <si>
+    <t>1701 Blanding Blvd.</t>
+  </si>
+  <si>
+    <t>1767%20Graffin%20Shoals%20Road</t>
+  </si>
+  <si>
+    <t>3790 S Eaton Street</t>
+  </si>
+  <si>
+    <t>6450 31st. Street East</t>
+  </si>
+  <si>
+    <t>295 Bendix Road, Suite 400</t>
+  </si>
+  <si>
+    <t>3372 Capital Circle NE</t>
+  </si>
+  <si>
+    <t>970 Kings Highway</t>
+  </si>
+  <si>
+    <t>9235 Danville Road</t>
+  </si>
+  <si>
+    <t>851 SW Darwin Blvd.</t>
+  </si>
+  <si>
+    <t>10210 Holland Manor Dr., Suite 110</t>
+  </si>
+  <si>
+    <t>2623 NW 24th St.</t>
+  </si>
+  <si>
+    <t>1339 Ga. Hwy 112</t>
+  </si>
+  <si>
+    <t>4233 NW 18th St</t>
+  </si>
+  <si>
+    <t>3595 Canton Road</t>
+  </si>
+  <si>
+    <t>3415 SW 96th St</t>
+  </si>
+  <si>
+    <t>7398 NW 44th Ave</t>
+  </si>
+  <si>
+    <t>114 E. Cedar Ave</t>
+  </si>
+  <si>
+    <t>2601 Maitland Center Parkway</t>
+  </si>
+  <si>
+    <t>PO Box 110565</t>
+  </si>
+  <si>
+    <t>4369 Tanners Church Road</t>
+  </si>
+  <si>
+    <t>5460 Okeechobee Blvd.</t>
+  </si>
+  <si>
+    <t>177 Parkland</t>
+  </si>
+  <si>
+    <t>P.O. Box 1759</t>
+  </si>
+  <si>
+    <t>11860 SR 84</t>
+  </si>
+  <si>
+    <t>250 Springview Commerce Dr</t>
+  </si>
+  <si>
+    <t>1103 HIGHWAY 29 SOUTH</t>
+  </si>
+  <si>
+    <t>350, rue Vachon</t>
+  </si>
+  <si>
+    <t>3260 Keith Bridge Road Suite 169</t>
+  </si>
+  <si>
+    <t>11453 Old Crystal River Road</t>
+  </si>
+  <si>
+    <t>2516 6th Avenue South</t>
+  </si>
+  <si>
+    <t>6205 Blue Lagoon Drive</t>
+  </si>
+  <si>
+    <t>573 Interstate Blvd.</t>
+  </si>
+  <si>
+    <t>8470 NE 44th Drive</t>
+  </si>
+  <si>
+    <t>13350 Rickenbacker Parkway</t>
+  </si>
+  <si>
+    <t>3160 Fairlane Farms Rd.</t>
+  </si>
+  <si>
+    <t>BOD/CRP Building 3-2744</t>
+  </si>
+  <si>
+    <t>10 Jalan Besar</t>
+  </si>
+  <si>
+    <t>12556 County Road 65</t>
+  </si>
+  <si>
+    <t>201 Alhambra Cir.</t>
+  </si>
+  <si>
+    <t>3310 Hanson Street</t>
+  </si>
+  <si>
+    <t>9200 Estero Park Commons Blvd.</t>
+  </si>
+  <si>
+    <t>772 South Military Trail</t>
+  </si>
+  <si>
+    <t>1364 Candler Road</t>
+  </si>
+  <si>
+    <t>112 East Johnson Street</t>
+  </si>
+  <si>
+    <t>Miami Marlins Stadium</t>
+  </si>
+  <si>
+    <t>10120 Highway 80 East</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>PO Box 2369</t>
+  </si>
+  <si>
+    <t>Suite 210</t>
+  </si>
+  <si>
+    <t>ATTN: Geoff</t>
+  </si>
+  <si>
+    <t>P.O. Box 617</t>
+  </si>
+  <si>
+    <t>Unit 102</t>
+  </si>
+  <si>
+    <t>PO BOX 9</t>
+  </si>
+  <si>
+    <t>Ste.C</t>
+  </si>
+  <si>
+    <t>Suite 1</t>
+  </si>
+  <si>
+    <t>3500 Lenox Rd NE, 501</t>
+  </si>
+  <si>
+    <t>Building 100, Suite 550</t>
+  </si>
+  <si>
+    <t>DCD-Building Division</t>
+  </si>
+  <si>
+    <t>Suite A</t>
+  </si>
+  <si>
+    <t>Ste 210</t>
+  </si>
+  <si>
+    <t>Gallows Bay</t>
+  </si>
+  <si>
+    <t>Suite 423</t>
+  </si>
+  <si>
+    <t>Suite 514</t>
+  </si>
+  <si>
+    <t>Attn: Steve Ford</t>
+  </si>
+  <si>
+    <t>Suite C</t>
+  </si>
+  <si>
+    <t>Suite D</t>
+  </si>
+  <si>
+    <t>Suite 115</t>
+  </si>
+  <si>
+    <t>27502 CR 880</t>
+  </si>
+  <si>
+    <t>Suite A206</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
+  </si>
+  <si>
+    <t>1530 Cornerstone, Suite 100</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GUNTERSVILLE</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Crestview</t>
+  </si>
+  <si>
+    <t>Forrest Park</t>
+  </si>
+  <si>
+    <t>Pinellas Park</t>
+  </si>
+  <si>
+    <t>Fl</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>85374-9002</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Austell</t>
+  </si>
+  <si>
+    <t>Hope Hull</t>
+  </si>
+  <si>
+    <t>St. Augustine</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Loxahatchee</t>
+  </si>
+  <si>
+    <t>Palmetto</t>
+  </si>
+  <si>
+    <t>Boca Raton</t>
+  </si>
+  <si>
+    <t>Crystal River</t>
+  </si>
+  <si>
+    <t>Punta Gorda</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Middleburg</t>
+  </si>
+  <si>
+    <t>Ft. Pierce</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Winter Garden</t>
+  </si>
+  <si>
+    <t>West Palm Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa </t>
+  </si>
+  <si>
+    <t>Oak Brook</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Nokomis</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Ocala</t>
+  </si>
+  <si>
+    <t>Lake City</t>
+  </si>
+  <si>
+    <t>Riverview</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Hurtsboro</t>
+  </si>
+  <si>
+    <t>Zephyrhills</t>
+  </si>
+  <si>
+    <t>Guelph, Ontario N1H 3Z6 Canada</t>
+  </si>
+  <si>
+    <t>Bunnell</t>
+  </si>
+  <si>
+    <t>Plant City</t>
+  </si>
+  <si>
+    <t>Fort Meyers</t>
+  </si>
+  <si>
+    <t>Ft. Myers</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>Statham</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Ashville</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norcross </t>
+  </si>
+  <si>
+    <t>Chuluota</t>
+  </si>
+  <si>
+    <t>Lutz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macomb Twp., </t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Heliopolis, 11361 Cairo, Egypt</t>
+  </si>
+  <si>
+    <t>Mulberry</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>LAKE WORTH</t>
+  </si>
+  <si>
+    <t>Big Ben</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>THEODORE</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Vero Beach</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>Spring Hill</t>
+  </si>
+  <si>
+    <t>Fort Myers</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>ORLANDO</t>
+  </si>
+  <si>
+    <t>32891-7035</t>
+  </si>
+  <si>
+    <t>Okahumpka</t>
+  </si>
+  <si>
+    <t>Pelham</t>
+  </si>
+  <si>
+    <t>Lee's Summitt</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>64081-3291</t>
+  </si>
+  <si>
+    <t>Myakka City</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Jemison</t>
+  </si>
+  <si>
+    <t>Kearny</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Valdosta</t>
+  </si>
+  <si>
+    <t>Chico</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Madison Heights</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>33619-7843</t>
+  </si>
+  <si>
+    <t>Port St. Lucie</t>
+  </si>
+  <si>
+    <t>Carrollton</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>Viera</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>Cape Coral</t>
+  </si>
+  <si>
+    <t>Fortson</t>
+  </si>
+  <si>
+    <t>Norcross</t>
+  </si>
+  <si>
+    <t>Farmingdale</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>Auburndale</t>
+  </si>
+  <si>
+    <t>Kingston 10, Jamaica</t>
+  </si>
+  <si>
+    <t>Apopka</t>
+  </si>
+  <si>
+    <t>Bradenton</t>
+  </si>
+  <si>
+    <t>Cartersville</t>
+  </si>
+  <si>
+    <t>Kissimmee</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Lithonia</t>
+  </si>
+  <si>
+    <t>Findlay</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>Palm Bay</t>
+  </si>
+  <si>
+    <t>Tuscaloosa</t>
+  </si>
+  <si>
+    <t>Belle Glade</t>
+  </si>
+  <si>
+    <t>Brooksville</t>
+  </si>
+  <si>
+    <t>Hinesville</t>
+  </si>
+  <si>
+    <t>Riviera%20Beach</t>
+  </si>
+  <si>
+    <t>Coral Springs</t>
+  </si>
+  <si>
+    <t>Mimms</t>
+  </si>
+  <si>
+    <t>Pensacola</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>33807-7057</t>
+  </si>
+  <si>
+    <t>Titusville</t>
+  </si>
+  <si>
+    <t>Ft. Benning</t>
+  </si>
+  <si>
+    <t>Bay Minetti</t>
+  </si>
+  <si>
+    <t>Lake Placid</t>
+  </si>
+  <si>
+    <t>PALMETTO</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Maitland</t>
+  </si>
+  <si>
+    <t>Gloversville</t>
+  </si>
+  <si>
+    <t>Thomaston</t>
+  </si>
+  <si>
+    <t>Sugar Hill</t>
+  </si>
+  <si>
+    <t>West Point</t>
+  </si>
+  <si>
+    <t>Middlesburg</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Medley</t>
+  </si>
+  <si>
+    <t>DeBary</t>
+  </si>
+  <si>
+    <t>Safety Harbor</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -422,11 +1478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -461,57 +1522,6067 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2">
+        <v>30336</v>
+      </c>
+      <c r="I2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3">
+        <v>35976</v>
+      </c>
+      <c r="I3" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4">
+        <v>33414</v>
+      </c>
+      <c r="I4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5">
+        <v>33773</v>
+      </c>
+      <c r="I5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6">
+        <v>29527</v>
+      </c>
+      <c r="I6" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7">
+        <v>32536</v>
+      </c>
+      <c r="I7" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9">
+        <v>33782</v>
+      </c>
+      <c r="I9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11">
+        <v>32204</v>
+      </c>
+      <c r="I11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12">
+        <v>30168</v>
+      </c>
+      <c r="I12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13">
+        <v>30336</v>
+      </c>
+      <c r="I13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14">
+        <v>36043</v>
+      </c>
+      <c r="I14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15">
+        <v>30336</v>
+      </c>
+      <c r="I15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16">
+        <v>32092</v>
+      </c>
+      <c r="I16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17">
+        <v>33605</v>
+      </c>
+      <c r="I17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18">
+        <v>30349</v>
+      </c>
+      <c r="I18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19">
+        <v>36117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20">
+        <v>33470</v>
+      </c>
+      <c r="I20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21">
+        <v>34221</v>
+      </c>
+      <c r="I21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22">
+        <v>32218</v>
+      </c>
+      <c r="I22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23">
+        <v>33487</v>
+      </c>
+      <c r="I23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24">
+        <v>34428</v>
+      </c>
+      <c r="I24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25">
+        <v>35976</v>
+      </c>
+      <c r="I25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26">
+        <v>36104</v>
+      </c>
+      <c r="I26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27">
+        <v>33982</v>
+      </c>
+      <c r="I27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28">
+        <v>32926</v>
+      </c>
+      <c r="I28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29">
+        <v>33803</v>
+      </c>
+      <c r="I29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30">
+        <v>32068</v>
+      </c>
+      <c r="I30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31">
+        <v>34979</v>
+      </c>
+      <c r="I31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32">
+        <v>6410</v>
+      </c>
+      <c r="I32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33">
+        <v>30336</v>
+      </c>
+      <c r="I33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34">
+        <v>36832</v>
+      </c>
+      <c r="I34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35">
+        <v>78221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36">
+        <v>34787</v>
+      </c>
+      <c r="I36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37">
+        <v>33417</v>
+      </c>
+      <c r="I37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38">
+        <v>33610</v>
+      </c>
+      <c r="I38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39">
+        <v>60523</v>
+      </c>
+      <c r="I39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40">
+        <v>34954</v>
+      </c>
+      <c r="I40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41">
+        <v>34275</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42">
+        <v>35207</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43">
+        <v>34475</v>
+      </c>
+      <c r="I43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44">
+        <v>32056</v>
+      </c>
+      <c r="I44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45">
+        <v>33569</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46">
+        <v>35749</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47">
+        <v>36860</v>
+      </c>
+      <c r="I47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48">
+        <v>33539</v>
+      </c>
+      <c r="I48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50">
+        <v>32110</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51">
+        <v>33566</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52">
+        <v>33569</v>
+      </c>
+      <c r="I52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53">
+        <v>34787</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54">
+        <v>35217</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55">
+        <v>33966</v>
+      </c>
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56">
+        <v>33912</v>
+      </c>
+      <c r="I56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57">
+        <v>30222</v>
+      </c>
+      <c r="I57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58">
+        <v>30666</v>
+      </c>
+      <c r="I58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60">
+        <v>32732</v>
+      </c>
+      <c r="I60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" t="s">
+        <v>223</v>
+      </c>
+      <c r="G61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61">
+        <v>32092</v>
+      </c>
+      <c r="I61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62">
+        <v>28806</v>
+      </c>
+      <c r="I62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>224</v>
+      </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63">
+        <v>33609</v>
+      </c>
+      <c r="I63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64">
+        <v>30093</v>
+      </c>
+      <c r="I64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" t="s">
+        <v>209</v>
+      </c>
+      <c r="H65">
+        <v>32766</v>
+      </c>
+      <c r="I65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66">
+        <v>33559</v>
+      </c>
+      <c r="I66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67">
+        <v>32092</v>
+      </c>
+      <c r="I67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68">
+        <v>32056</v>
+      </c>
+      <c r="I68" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" t="s">
+        <v>269</v>
+      </c>
+      <c r="H69">
+        <v>48042</v>
+      </c>
+      <c r="I69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>271</v>
+      </c>
+      <c r="G71" t="s">
+        <v>216</v>
+      </c>
+      <c r="H71">
+        <v>33860</v>
+      </c>
+      <c r="I71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>250</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72">
+        <v>33569</v>
+      </c>
+      <c r="I72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" t="s">
+        <v>273</v>
+      </c>
+      <c r="H73">
+        <v>22310</v>
+      </c>
+      <c r="I73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" t="s">
+        <v>209</v>
+      </c>
+      <c r="H74">
+        <v>33411</v>
+      </c>
+      <c r="I74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75">
+        <v>32807</v>
+      </c>
+      <c r="I75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>275</v>
+      </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76">
+        <v>33463</v>
+      </c>
+      <c r="I76" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77">
+        <v>32204</v>
+      </c>
+      <c r="I77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s">
+        <v>276</v>
+      </c>
+      <c r="G78" t="s">
+        <v>277</v>
+      </c>
+      <c r="H78">
+        <v>53103</v>
+      </c>
+      <c r="I78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>278</v>
+      </c>
+      <c r="G79" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79">
+        <v>34240</v>
+      </c>
+      <c r="I79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>279</v>
+      </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80">
+        <v>31021</v>
+      </c>
+      <c r="I80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>241</v>
+      </c>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81">
+        <v>34787</v>
+      </c>
+      <c r="I81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" t="s">
+        <v>209</v>
+      </c>
+      <c r="H82">
+        <v>33166</v>
+      </c>
+      <c r="I82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" t="s">
+        <v>207</v>
+      </c>
+      <c r="H83">
+        <v>36582</v>
+      </c>
+      <c r="I83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" t="s">
+        <v>282</v>
+      </c>
+      <c r="G84" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84">
+        <v>36203</v>
+      </c>
+      <c r="I84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85">
+        <v>34787</v>
+      </c>
+      <c r="I85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86">
+        <v>30336</v>
+      </c>
+      <c r="I86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87" t="s">
+        <v>283</v>
+      </c>
+      <c r="G87" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87">
+        <v>32968</v>
+      </c>
+      <c r="I87" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88">
+        <v>33136</v>
+      </c>
+      <c r="I88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" t="s">
+        <v>284</v>
+      </c>
+      <c r="G89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89">
+        <v>32601</v>
+      </c>
+      <c r="I89" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>285</v>
+      </c>
+      <c r="G90" t="s">
+        <v>209</v>
+      </c>
+      <c r="H90">
+        <v>34610</v>
+      </c>
+      <c r="I90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" t="s">
+        <v>280</v>
+      </c>
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91">
+        <v>33126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" t="s">
+        <v>274</v>
+      </c>
+      <c r="G92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92">
+        <v>32807</v>
+      </c>
+      <c r="I92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" t="s">
+        <v>286</v>
+      </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93">
+        <v>33905</v>
+      </c>
+      <c r="I93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94">
+        <v>30168</v>
+      </c>
+      <c r="I94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s">
+        <v>287</v>
+      </c>
+      <c r="G95" t="s">
+        <v>245</v>
+      </c>
+      <c r="H95">
+        <v>62263</v>
+      </c>
+      <c r="I95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" t="s">
+        <v>288</v>
+      </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96">
+        <v>31216</v>
+      </c>
+      <c r="I96" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>242</v>
+      </c>
+      <c r="G97" t="s">
+        <v>209</v>
+      </c>
+      <c r="H97">
+        <v>33411</v>
+      </c>
+      <c r="I97" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" t="s">
+        <v>289</v>
+      </c>
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>290</v>
+      </c>
+      <c r="I98" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>291</v>
+      </c>
+      <c r="G99" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99">
+        <v>34762</v>
+      </c>
+      <c r="I99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
+      <c r="G100" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100">
+        <v>35124</v>
+      </c>
+      <c r="I100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101">
+        <v>30336</v>
+      </c>
+      <c r="I101" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G102" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102">
+        <v>31021</v>
+      </c>
+      <c r="I102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>280</v>
+      </c>
+      <c r="G103" t="s">
+        <v>209</v>
+      </c>
+      <c r="H103">
+        <v>33152</v>
+      </c>
+      <c r="I103" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
+        <v>293</v>
+      </c>
+      <c r="G104" t="s">
+        <v>294</v>
+      </c>
+      <c r="H104" t="s">
+        <v>295</v>
+      </c>
+      <c r="I104" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" t="s">
+        <v>205</v>
+      </c>
+      <c r="H105">
+        <v>30349</v>
+      </c>
+      <c r="I105" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>247</v>
+      </c>
+      <c r="G106" t="s">
+        <v>207</v>
+      </c>
+      <c r="H106">
+        <v>35217</v>
+      </c>
+      <c r="I106" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" t="s">
+        <v>209</v>
+      </c>
+      <c r="H107">
+        <v>34251</v>
+      </c>
+      <c r="I107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>297</v>
+      </c>
+      <c r="G108" t="s">
+        <v>298</v>
+      </c>
+      <c r="H108">
+        <v>80235</v>
+      </c>
+      <c r="I108" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>299</v>
+      </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109">
+        <v>35085</v>
+      </c>
+      <c r="I109" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>191</v>
+      </c>
+      <c r="F110" t="s">
+        <v>208</v>
+      </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110">
+        <v>33414</v>
+      </c>
+      <c r="I110" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>214</v>
+      </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" t="s">
+        <v>300</v>
+      </c>
+      <c r="G112" t="s">
+        <v>301</v>
+      </c>
+      <c r="H112">
+        <v>7032</v>
+      </c>
+      <c r="I112" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113">
+        <v>31040</v>
+      </c>
+      <c r="I113" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>278</v>
+      </c>
+      <c r="G114" t="s">
+        <v>209</v>
+      </c>
+      <c r="H114">
+        <v>34240</v>
+      </c>
+      <c r="I114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>100</v>
+      </c>
+      <c r="F115" t="s">
+        <v>302</v>
+      </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+      <c r="H115">
+        <v>31601</v>
+      </c>
+      <c r="I115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" t="s">
+        <v>303</v>
+      </c>
+      <c r="G116" t="s">
+        <v>304</v>
+      </c>
+      <c r="H116">
+        <v>95973</v>
+      </c>
+      <c r="I116" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>192</v>
+      </c>
+      <c r="F117" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H117">
+        <v>32922</v>
+      </c>
+      <c r="I117" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" t="s">
+        <v>186</v>
+      </c>
+      <c r="F118" t="s">
+        <v>305</v>
+      </c>
+      <c r="G118" t="s">
+        <v>306</v>
+      </c>
+      <c r="H118">
+        <v>48071</v>
+      </c>
+      <c r="I118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" t="s">
+        <v>224</v>
+      </c>
+      <c r="G119" t="s">
+        <v>209</v>
+      </c>
+      <c r="H119" t="s">
+        <v>307</v>
+      </c>
+      <c r="I119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" t="s">
+        <v>308</v>
+      </c>
+      <c r="G120" t="s">
+        <v>209</v>
+      </c>
+      <c r="H120">
+        <v>34953</v>
+      </c>
+      <c r="I120" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" t="s">
+        <v>309</v>
+      </c>
+      <c r="G121" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121">
+        <v>30117</v>
+      </c>
+      <c r="I121" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1">
+        <v>121</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122" t="s">
+        <v>260</v>
+      </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122">
+        <v>30666</v>
+      </c>
+      <c r="I122" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1">
+        <v>122</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" t="s">
+        <v>228</v>
+      </c>
+      <c r="G123" t="s">
+        <v>209</v>
+      </c>
+      <c r="H123">
+        <v>34221</v>
+      </c>
+      <c r="I123" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>123</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" t="s">
+        <v>194</v>
+      </c>
+      <c r="F124" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H124">
+        <v>32904</v>
+      </c>
+      <c r="I124" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>311</v>
+      </c>
+      <c r="G125" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125">
+        <v>30013</v>
+      </c>
+      <c r="I125" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126" t="s">
+        <v>209</v>
+      </c>
+      <c r="H126">
+        <v>33771</v>
+      </c>
+      <c r="I126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>126</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" t="s">
+        <v>312</v>
+      </c>
+      <c r="G127" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127">
+        <v>32940</v>
+      </c>
+      <c r="I127" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1">
+        <v>127</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>109</v>
+      </c>
+      <c r="F128" t="s">
+        <v>313</v>
+      </c>
+      <c r="G128" t="s">
+        <v>209</v>
+      </c>
+      <c r="H128">
+        <v>32404</v>
+      </c>
+      <c r="I128" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1">
+        <v>128</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>110</v>
+      </c>
+      <c r="F129" t="s">
+        <v>314</v>
+      </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129">
+        <v>33904</v>
+      </c>
+      <c r="I129" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1">
+        <v>129</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G130" t="s">
+        <v>209</v>
+      </c>
+      <c r="H130">
+        <v>32092</v>
+      </c>
+      <c r="I130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>224</v>
+      </c>
+      <c r="G131" t="s">
+        <v>209</v>
+      </c>
+      <c r="H131">
+        <v>33610</v>
+      </c>
+      <c r="I131" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1">
+        <v>131</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F132" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132">
+        <v>30168</v>
+      </c>
+      <c r="I132" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1">
+        <v>132</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>112</v>
+      </c>
+      <c r="F133" t="s">
+        <v>258</v>
+      </c>
+      <c r="G133" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133">
+        <v>33905</v>
+      </c>
+      <c r="I133" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1">
+        <v>133</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s">
+        <v>204</v>
+      </c>
+      <c r="G134" t="s">
+        <v>205</v>
+      </c>
+      <c r="H134">
+        <v>30336</v>
+      </c>
+      <c r="I134" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1">
+        <v>134</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>284</v>
+      </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135">
+        <v>30507</v>
+      </c>
+      <c r="I135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1">
+        <v>135</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" t="s">
+        <v>292</v>
+      </c>
+      <c r="G136" t="s">
+        <v>207</v>
+      </c>
+      <c r="H136">
+        <v>35124</v>
+      </c>
+      <c r="I136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1">
+        <v>136</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+      <c r="F137" t="s">
+        <v>271</v>
+      </c>
+      <c r="G137" t="s">
+        <v>216</v>
+      </c>
+      <c r="H137">
+        <v>33860</v>
+      </c>
+      <c r="I137" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1">
+        <v>137</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138">
+        <v>30336</v>
+      </c>
+      <c r="I138" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>138</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s">
+        <v>315</v>
+      </c>
+      <c r="G139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139">
+        <v>31808</v>
+      </c>
+      <c r="I139" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1">
+        <v>139</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>115</v>
+      </c>
+      <c r="F140" t="s">
+        <v>278</v>
+      </c>
+      <c r="G140" t="s">
+        <v>209</v>
+      </c>
+      <c r="H140">
+        <v>34233</v>
+      </c>
+      <c r="I140" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" t="s">
+        <v>315</v>
+      </c>
+      <c r="G141" t="s">
+        <v>205</v>
+      </c>
+      <c r="H141">
+        <v>31808</v>
+      </c>
+      <c r="I141" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1">
+        <v>141</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" t="s">
+        <v>316</v>
+      </c>
+      <c r="G142" t="s">
+        <v>205</v>
+      </c>
+      <c r="H142">
+        <v>30093</v>
+      </c>
+      <c r="I142" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143" s="1">
+        <v>142</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s">
+        <v>317</v>
+      </c>
+      <c r="G143" t="s">
+        <v>318</v>
+      </c>
+      <c r="H143">
+        <v>11735</v>
+      </c>
+      <c r="I143" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1">
+        <v>143</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" t="s">
+        <v>274</v>
+      </c>
+      <c r="G144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H144">
+        <v>32821</v>
+      </c>
+      <c r="I144" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1">
+        <v>144</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" t="s">
+        <v>186</v>
+      </c>
+      <c r="F145" t="s">
+        <v>224</v>
+      </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145">
+        <v>33607</v>
+      </c>
+      <c r="I145" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1">
+        <v>145</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>119</v>
+      </c>
+      <c r="F146" t="s">
+        <v>250</v>
+      </c>
+      <c r="G146" t="s">
+        <v>209</v>
+      </c>
+      <c r="H146">
+        <v>33569</v>
+      </c>
+      <c r="I146" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1">
+        <v>146</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" t="s">
+        <v>319</v>
+      </c>
+      <c r="G147" t="s">
+        <v>209</v>
+      </c>
+      <c r="H147">
+        <v>32305</v>
+      </c>
+      <c r="I147" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="1">
+        <v>147</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>121</v>
+      </c>
+      <c r="F148" t="s">
+        <v>286</v>
+      </c>
+      <c r="G148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148">
+        <v>33913</v>
+      </c>
+      <c r="I148" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1">
+        <v>148</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>122</v>
+      </c>
+      <c r="F149" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149" t="s">
+        <v>209</v>
+      </c>
+      <c r="H149">
+        <v>32807</v>
+      </c>
+      <c r="I149" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1">
+        <v>149</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>123</v>
+      </c>
+      <c r="F150" t="s">
+        <v>224</v>
+      </c>
+      <c r="G150" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150">
+        <v>33687</v>
+      </c>
+      <c r="I150" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
+      <c r="B151" s="1">
+        <v>150</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>124</v>
+      </c>
+      <c r="F151" t="s">
+        <v>204</v>
+      </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151">
+        <v>30336</v>
+      </c>
+      <c r="I151" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1">
+        <v>151</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>320</v>
+      </c>
+      <c r="G152" t="s">
+        <v>209</v>
+      </c>
+      <c r="H152">
+        <v>33823</v>
+      </c>
+      <c r="I152" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1">
+        <v>152</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" t="s">
+        <v>321</v>
+      </c>
+      <c r="G153" t="s">
+        <v>209</v>
+      </c>
+      <c r="I153" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1">
+        <v>153</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>125</v>
+      </c>
+      <c r="F154" t="s">
+        <v>322</v>
+      </c>
+      <c r="G154" t="s">
+        <v>216</v>
+      </c>
+      <c r="H154">
+        <v>32703</v>
+      </c>
+      <c r="I154" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1">
+        <v>154</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>126</v>
+      </c>
+      <c r="F155" t="s">
+        <v>323</v>
+      </c>
+      <c r="G155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H155">
+        <v>34208</v>
+      </c>
+      <c r="I155" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1">
+        <v>155</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" t="s">
+        <v>324</v>
+      </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156">
+        <v>30121</v>
+      </c>
+      <c r="I156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1">
+        <v>156</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F157" t="s">
+        <v>325</v>
+      </c>
+      <c r="G157" t="s">
+        <v>209</v>
+      </c>
+      <c r="H157">
+        <v>34741</v>
+      </c>
+      <c r="I157" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1">
+        <v>157</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" t="s">
+        <v>326</v>
+      </c>
+      <c r="G158" t="s">
+        <v>205</v>
+      </c>
+      <c r="H158">
+        <v>31031</v>
+      </c>
+      <c r="I158" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1">
+        <v>158</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>128</v>
+      </c>
+      <c r="F159" t="s">
+        <v>208</v>
+      </c>
+      <c r="G159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159">
+        <v>33414</v>
+      </c>
+      <c r="I159" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>159</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>129</v>
+      </c>
+      <c r="F160" t="s">
+        <v>327</v>
+      </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160">
+        <v>30058</v>
+      </c>
+      <c r="I160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="1">
+        <v>160</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>130</v>
+      </c>
+      <c r="F161" t="s">
+        <v>328</v>
+      </c>
+      <c r="G161" t="s">
+        <v>329</v>
+      </c>
+      <c r="H161">
+        <v>45840</v>
+      </c>
+      <c r="I161" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1">
+        <v>161</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>131</v>
+      </c>
+      <c r="F162" t="s">
+        <v>323</v>
+      </c>
+      <c r="G162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H162">
+        <v>34208</v>
+      </c>
+      <c r="I162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1">
+        <v>162</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>132</v>
+      </c>
+      <c r="F163" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
+      <c r="H163">
+        <v>30168</v>
+      </c>
+      <c r="I163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1">
+        <v>163</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" t="s">
+        <v>330</v>
+      </c>
+      <c r="G164" t="s">
+        <v>216</v>
+      </c>
+      <c r="H164">
+        <v>34109</v>
+      </c>
+      <c r="I164" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1">
+        <v>164</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>71</v>
+      </c>
+      <c r="F165" t="s">
+        <v>331</v>
+      </c>
+      <c r="G165" t="s">
+        <v>209</v>
+      </c>
+      <c r="H165">
+        <v>32905</v>
+      </c>
+      <c r="I165" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1">
+        <v>165</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>77</v>
+      </c>
+      <c r="F166" t="s">
+        <v>332</v>
+      </c>
+      <c r="G166" t="s">
+        <v>207</v>
+      </c>
+      <c r="H166">
+        <v>35403</v>
+      </c>
+      <c r="I166" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1">
+        <v>166</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>133</v>
+      </c>
+      <c r="F167" t="s">
+        <v>267</v>
+      </c>
+      <c r="G167" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167">
+        <v>33548</v>
+      </c>
+      <c r="I167" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
+      <c r="B168" s="1">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>134</v>
+      </c>
+      <c r="F168" t="s">
+        <v>333</v>
+      </c>
+      <c r="G168" t="s">
+        <v>209</v>
+      </c>
+      <c r="H168">
+        <v>33430</v>
+      </c>
+      <c r="I168" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1">
+        <v>168</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>135</v>
+      </c>
+      <c r="F169" t="s">
+        <v>334</v>
+      </c>
+      <c r="G169" t="s">
+        <v>209</v>
+      </c>
+      <c r="H169">
+        <v>34605</v>
+      </c>
+      <c r="I169" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1">
+        <v>169</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" t="s">
+        <v>335</v>
+      </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1">
+        <v>170</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>136</v>
+      </c>
+      <c r="E171" t="s">
+        <v>197</v>
+      </c>
+      <c r="F171" t="s">
+        <v>336</v>
+      </c>
+      <c r="G171" t="s">
+        <v>209</v>
+      </c>
+      <c r="H171">
+        <v>33404</v>
+      </c>
+      <c r="I171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1">
+        <v>171</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>137</v>
+      </c>
+      <c r="F172" t="s">
+        <v>280</v>
+      </c>
+      <c r="G172" t="s">
+        <v>209</v>
+      </c>
+      <c r="H172">
+        <v>33152</v>
+      </c>
+      <c r="I172" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1">
+        <v>172</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>138</v>
+      </c>
+      <c r="F173" t="s">
+        <v>337</v>
+      </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+      <c r="H173">
+        <v>33065</v>
+      </c>
+      <c r="I173" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1">
+        <v>173</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174" t="s">
+        <v>338</v>
+      </c>
+      <c r="G174" t="s">
+        <v>216</v>
+      </c>
+      <c r="H174">
+        <v>32754</v>
+      </c>
+      <c r="I174" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1">
+        <v>174</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>139</v>
+      </c>
+      <c r="F175" t="s">
+        <v>224</v>
+      </c>
+      <c r="G175" t="s">
+        <v>209</v>
+      </c>
+      <c r="H175">
+        <v>33610</v>
+      </c>
+      <c r="I175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+      <c r="B176" s="1">
+        <v>175</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" t="s">
+        <v>339</v>
+      </c>
+      <c r="G176" t="s">
+        <v>209</v>
+      </c>
+      <c r="H176">
+        <v>32534</v>
+      </c>
+      <c r="I176" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1">
+        <v>176</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>140</v>
+      </c>
+      <c r="F177" t="s">
+        <v>242</v>
+      </c>
+      <c r="G177" t="s">
+        <v>209</v>
+      </c>
+      <c r="H177">
+        <v>33417</v>
+      </c>
+      <c r="I177" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="1">
+        <v>177</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>48</v>
+      </c>
+      <c r="F178" t="s">
+        <v>235</v>
+      </c>
+      <c r="G178" t="s">
+        <v>209</v>
+      </c>
+      <c r="H178">
+        <v>34982</v>
+      </c>
+      <c r="I178" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1">
+        <v>178</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>141</v>
+      </c>
+      <c r="F179" t="s">
+        <v>247</v>
+      </c>
+      <c r="G179" t="s">
+        <v>207</v>
+      </c>
+      <c r="H179">
+        <v>35217</v>
+      </c>
+      <c r="I179" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+      <c r="B180" s="1">
+        <v>179</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>142</v>
+      </c>
+      <c r="F180" t="s">
+        <v>204</v>
+      </c>
+      <c r="G180" t="s">
+        <v>205</v>
+      </c>
+      <c r="H180">
+        <v>30336</v>
+      </c>
+      <c r="I180" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="1">
+        <v>180</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>143</v>
+      </c>
+      <c r="E181" t="s">
+        <v>198</v>
+      </c>
+      <c r="F181" t="s">
+        <v>340</v>
+      </c>
+      <c r="G181" t="s">
+        <v>209</v>
+      </c>
+      <c r="H181">
+        <v>34997</v>
+      </c>
+      <c r="I181" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1">
+        <v>181</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>144</v>
+      </c>
+      <c r="F182" t="s">
+        <v>242</v>
+      </c>
+      <c r="G182" t="s">
+        <v>209</v>
+      </c>
+      <c r="H182">
+        <v>33416</v>
+      </c>
+      <c r="I182" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1">
+        <v>182</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>145</v>
+      </c>
+      <c r="F183" t="s">
+        <v>247</v>
+      </c>
+      <c r="G183" t="s">
+        <v>207</v>
+      </c>
+      <c r="H183">
+        <v>35217</v>
+      </c>
+      <c r="I183" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+      <c r="B184" s="1">
+        <v>183</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>146</v>
+      </c>
+      <c r="E184" t="s">
+        <v>196</v>
+      </c>
+      <c r="F184" t="s">
+        <v>333</v>
+      </c>
+      <c r="G184" t="s">
+        <v>209</v>
+      </c>
+      <c r="H184">
+        <v>33430</v>
+      </c>
+      <c r="I184" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1">
+        <v>184</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>147</v>
+      </c>
+      <c r="F185" t="s">
+        <v>242</v>
+      </c>
+      <c r="G185" t="s">
+        <v>209</v>
+      </c>
+      <c r="I185" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1">
+        <v>185</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>148</v>
+      </c>
+      <c r="F186" t="s">
+        <v>233</v>
+      </c>
+      <c r="G186" t="s">
+        <v>216</v>
+      </c>
+      <c r="H186" t="s">
+        <v>341</v>
+      </c>
+      <c r="I186" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>186</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>149</v>
+      </c>
+      <c r="F187" t="s">
+        <v>224</v>
+      </c>
+      <c r="G187" t="s">
+        <v>209</v>
+      </c>
+      <c r="H187">
+        <v>33601</v>
+      </c>
+      <c r="I187" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1">
+        <v>187</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>150</v>
+      </c>
+      <c r="F188" t="s">
+        <v>342</v>
+      </c>
+      <c r="G188" t="s">
+        <v>209</v>
+      </c>
+      <c r="I188" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1">
+        <v>188</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>101</v>
+      </c>
+      <c r="F189" t="s">
+        <v>343</v>
+      </c>
+      <c r="G189" t="s">
+        <v>205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1">
+        <v>189</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>89</v>
+      </c>
+      <c r="F190" t="s">
+        <v>247</v>
+      </c>
+      <c r="G190" t="s">
+        <v>207</v>
+      </c>
+      <c r="H190">
+        <v>35217</v>
+      </c>
+      <c r="I190" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1">
+        <v>190</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>118</v>
+      </c>
+      <c r="F191" t="s">
+        <v>340</v>
+      </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191">
+        <v>34994</v>
+      </c>
+      <c r="I191" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1">
+        <v>191</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>151</v>
+      </c>
+      <c r="E192" t="s">
+        <v>199</v>
+      </c>
+      <c r="F192" t="s">
+        <v>344</v>
+      </c>
+      <c r="G192" t="s">
+        <v>207</v>
+      </c>
+      <c r="I192" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1">
+        <v>192</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>149</v>
+      </c>
+      <c r="F193" t="s">
+        <v>345</v>
+      </c>
+      <c r="G193" t="s">
+        <v>209</v>
+      </c>
+      <c r="H193">
+        <v>33852</v>
+      </c>
+      <c r="I193" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1">
+        <v>193</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
+        <v>88</v>
+      </c>
+      <c r="F194" t="s">
+        <v>346</v>
+      </c>
+      <c r="G194" t="s">
+        <v>209</v>
+      </c>
+      <c r="H194">
+        <v>34221</v>
+      </c>
+      <c r="I194" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>194</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>152</v>
+      </c>
+      <c r="F195" t="s">
+        <v>347</v>
+      </c>
+      <c r="G195" t="s">
+        <v>207</v>
+      </c>
+      <c r="H195">
+        <v>36832</v>
+      </c>
+      <c r="I195" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1">
+        <v>195</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>117</v>
+      </c>
+      <c r="F196" t="s">
+        <v>280</v>
+      </c>
+      <c r="G196" t="s">
+        <v>209</v>
+      </c>
+      <c r="H196">
+        <v>33196</v>
+      </c>
+      <c r="I196" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1">
+        <v>196</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>153</v>
+      </c>
+      <c r="F197" t="s">
+        <v>279</v>
+      </c>
+      <c r="G197" t="s">
+        <v>205</v>
+      </c>
+      <c r="H197">
+        <v>31027</v>
+      </c>
+      <c r="I197" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1">
+        <v>197</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" t="s">
+        <v>310</v>
+      </c>
+      <c r="G198" t="s">
+        <v>216</v>
+      </c>
+      <c r="H198">
+        <v>32904</v>
+      </c>
+      <c r="I198" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1">
+        <v>198</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>154</v>
+      </c>
+      <c r="F199" t="s">
+        <v>348</v>
+      </c>
+      <c r="G199" t="s">
+        <v>209</v>
+      </c>
+      <c r="H199">
+        <v>32771</v>
+      </c>
+      <c r="I199" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1">
+        <v>199</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>63</v>
+      </c>
+      <c r="F200" t="s">
+        <v>325</v>
+      </c>
+      <c r="G200" t="s">
+        <v>209</v>
+      </c>
+      <c r="H200">
+        <v>34741</v>
+      </c>
+      <c r="I200" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1">
+        <v>200</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>155</v>
+      </c>
+      <c r="E201" t="s">
+        <v>188</v>
+      </c>
+      <c r="F201" t="s">
+        <v>349</v>
+      </c>
+      <c r="G201" t="s">
+        <v>209</v>
+      </c>
+      <c r="H201">
+        <v>32751</v>
+      </c>
+      <c r="I201" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1">
+        <v>201</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>156</v>
+      </c>
+      <c r="F202" t="s">
+        <v>253</v>
+      </c>
+      <c r="G202" t="s">
+        <v>209</v>
+      </c>
+      <c r="H202">
+        <v>33539</v>
+      </c>
+      <c r="I202" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>157</v>
+      </c>
+      <c r="F203" t="s">
+        <v>313</v>
+      </c>
+      <c r="G203" t="s">
+        <v>209</v>
+      </c>
+      <c r="H203">
+        <v>32404</v>
+      </c>
+      <c r="I203" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>158</v>
+      </c>
+      <c r="F204" t="s">
+        <v>315</v>
+      </c>
+      <c r="G204" t="s">
+        <v>205</v>
+      </c>
+      <c r="H204">
+        <v>31808</v>
+      </c>
+      <c r="I204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205" t="s">
+        <v>247</v>
+      </c>
+      <c r="G205" t="s">
+        <v>207</v>
+      </c>
+      <c r="H205">
+        <v>35217</v>
+      </c>
+      <c r="I205" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
+      <c r="B206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" t="s">
+        <v>159</v>
+      </c>
+      <c r="F206" t="s">
+        <v>350</v>
+      </c>
+      <c r="G206" t="s">
+        <v>318</v>
+      </c>
+      <c r="H206">
+        <v>12078</v>
+      </c>
+      <c r="I206" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>160</v>
+      </c>
+      <c r="F207" t="s">
+        <v>338</v>
+      </c>
+      <c r="G207" t="s">
+        <v>216</v>
+      </c>
+      <c r="H207">
+        <v>32754</v>
+      </c>
+      <c r="I207" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>76</v>
+      </c>
+      <c r="E208" t="s">
+        <v>200</v>
+      </c>
+      <c r="F208" t="s">
+        <v>258</v>
+      </c>
+      <c r="G208" t="s">
+        <v>209</v>
+      </c>
+      <c r="H208">
+        <v>33908</v>
+      </c>
+      <c r="I208" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" t="s">
+        <v>235</v>
+      </c>
+      <c r="G209" t="s">
+        <v>209</v>
+      </c>
+      <c r="H209">
+        <v>34947</v>
+      </c>
+      <c r="I209" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" t="s">
+        <v>98</v>
+      </c>
+      <c r="F210" t="s">
+        <v>232</v>
+      </c>
+      <c r="G210" t="s">
+        <v>209</v>
+      </c>
+      <c r="H210">
+        <v>32926</v>
+      </c>
+      <c r="I210" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>161</v>
+      </c>
+      <c r="F211" t="s">
+        <v>221</v>
+      </c>
+      <c r="G211" t="s">
+        <v>205</v>
+      </c>
+      <c r="H211">
+        <v>30168</v>
+      </c>
+      <c r="I211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>126</v>
+      </c>
+      <c r="E212" t="s">
+        <v>190</v>
+      </c>
+      <c r="F212" t="s">
+        <v>247</v>
+      </c>
+      <c r="G212" t="s">
+        <v>207</v>
+      </c>
+      <c r="H212">
+        <v>35217</v>
+      </c>
+      <c r="I212" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>162</v>
+      </c>
+      <c r="F213" t="s">
+        <v>351</v>
+      </c>
+      <c r="G213" t="s">
+        <v>205</v>
+      </c>
+      <c r="H213">
+        <v>30286</v>
+      </c>
+      <c r="I213" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>44</v>
+      </c>
+      <c r="F214" t="s">
+        <v>325</v>
+      </c>
+      <c r="G214" t="s">
+        <v>209</v>
+      </c>
+      <c r="H214">
+        <v>34741</v>
+      </c>
+      <c r="I214" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="1">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>90</v>
+      </c>
+      <c r="F215" t="s">
+        <v>352</v>
+      </c>
+      <c r="G215" t="s">
+        <v>205</v>
+      </c>
+      <c r="H215">
+        <v>30518</v>
+      </c>
+      <c r="I215" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="1">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>63</v>
+      </c>
+      <c r="E216" t="s">
+        <v>201</v>
+      </c>
+      <c r="F216" t="s">
+        <v>353</v>
+      </c>
+      <c r="G216" t="s">
+        <v>205</v>
+      </c>
+      <c r="H216">
+        <v>31833</v>
+      </c>
+      <c r="I216" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>163</v>
+      </c>
+      <c r="F217" t="s">
+        <v>354</v>
+      </c>
+      <c r="G217" t="s">
+        <v>209</v>
+      </c>
+      <c r="H217">
+        <v>32068</v>
+      </c>
+      <c r="I217" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" t="s">
+        <v>164</v>
+      </c>
+      <c r="F218" t="s">
+        <v>355</v>
+      </c>
+      <c r="G218" t="s">
+        <v>356</v>
+      </c>
+      <c r="H218">
+        <v>83616</v>
+      </c>
+      <c r="I218" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>165</v>
+      </c>
+      <c r="F219" t="s">
+        <v>220</v>
+      </c>
+      <c r="G219" t="s">
+        <v>209</v>
+      </c>
+      <c r="H219">
+        <v>32254</v>
+      </c>
+      <c r="I219" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>166</v>
+      </c>
+      <c r="F220" t="s">
+        <v>291</v>
+      </c>
+      <c r="G220" t="s">
+        <v>209</v>
+      </c>
+      <c r="H220">
+        <v>34762</v>
+      </c>
+      <c r="I220" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>167</v>
+      </c>
+      <c r="F221" t="s">
+        <v>224</v>
+      </c>
+      <c r="G221" t="s">
+        <v>209</v>
+      </c>
+      <c r="H221">
+        <v>33611</v>
+      </c>
+      <c r="I221" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>168</v>
+      </c>
+      <c r="E222" t="s">
+        <v>202</v>
+      </c>
+      <c r="F222" t="s">
+        <v>313</v>
+      </c>
+      <c r="G222" t="s">
+        <v>209</v>
+      </c>
+      <c r="H222">
+        <v>32404</v>
+      </c>
+      <c r="I222" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>169</v>
+      </c>
+      <c r="F223" t="s">
+        <v>316</v>
+      </c>
+      <c r="G223" t="s">
+        <v>205</v>
+      </c>
+      <c r="H223">
+        <v>30093</v>
+      </c>
+      <c r="I223" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="1">
+        <v>1</v>
+      </c>
+      <c r="B224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" t="s">
+        <v>357</v>
+      </c>
+      <c r="G224" t="s">
+        <v>209</v>
+      </c>
+      <c r="H224">
+        <v>33178</v>
+      </c>
+      <c r="I224" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>170</v>
+      </c>
+      <c r="F225" t="s">
+        <v>358</v>
+      </c>
+      <c r="G225" t="s">
+        <v>216</v>
+      </c>
+      <c r="H225">
+        <v>32713</v>
+      </c>
+      <c r="I225" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>171</v>
+      </c>
+      <c r="E226" t="s">
+        <v>203</v>
+      </c>
+      <c r="F226" t="s">
+        <v>279</v>
+      </c>
+      <c r="G226" t="s">
+        <v>205</v>
+      </c>
+      <c r="H226">
+        <v>31021</v>
+      </c>
+      <c r="I226" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>172</v>
+      </c>
+      <c r="F227" t="s">
+        <v>281</v>
+      </c>
+      <c r="G227" t="s">
+        <v>207</v>
+      </c>
+      <c r="H227">
+        <v>36582</v>
+      </c>
+      <c r="I227" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s">
+        <v>173</v>
+      </c>
+      <c r="F228" t="s">
+        <v>220</v>
+      </c>
+      <c r="G228" t="s">
+        <v>209</v>
+      </c>
+      <c r="H228">
+        <v>32218</v>
+      </c>
+      <c r="I228" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>174</v>
+      </c>
+      <c r="E229" t="s">
+        <v>190</v>
+      </c>
+      <c r="F229" t="s">
+        <v>220</v>
+      </c>
+      <c r="G229" t="s">
+        <v>209</v>
+      </c>
+      <c r="H229">
+        <v>32254</v>
+      </c>
+      <c r="I229" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="1">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="s">
+        <v>175</v>
+      </c>
+      <c r="F230" t="s">
+        <v>359</v>
+      </c>
+      <c r="G230" t="s">
+        <v>209</v>
+      </c>
+      <c r="H230">
+        <v>34695</v>
+      </c>
+      <c r="I230" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="1">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>176</v>
+      </c>
+      <c r="F231" t="s">
+        <v>244</v>
+      </c>
+      <c r="G231" t="s">
+        <v>245</v>
+      </c>
+      <c r="H231">
+        <v>60523</v>
+      </c>
+      <c r="I231" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>177</v>
+      </c>
+      <c r="F232" t="s">
+        <v>340</v>
+      </c>
+      <c r="G232" t="s">
+        <v>209</v>
+      </c>
+      <c r="H232">
+        <v>34997</v>
+      </c>
+      <c r="I232" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
